--- a/docs/data/zsf.xlsx
+++ b/docs/data/zsf.xlsx
@@ -928,7 +928,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,7 +1042,7 @@
         <v>1945</v>
       </c>
       <c r="K3" s="1">
-        <v>815</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1078,7 +1078,7 @@
         <v>89070</v>
       </c>
       <c r="K4" s="1">
-        <v>34599</v>
+        <v>45613</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1113,7 +1113,7 @@
         <v>207</v>
       </c>
       <c r="K5" s="1">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1148,7 +1148,7 @@
         <v>38.9</v>
       </c>
       <c r="K6" s="1">
-        <v>29.7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1183,7 +1183,7 @@
         <v>141</v>
       </c>
       <c r="K7" s="1">
-        <v>940</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1218,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1254,7 +1254,7 @@
         <v>638</v>
       </c>
       <c r="K9" s="1">
-        <v>215</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1290,7 +1290,7 @@
         <v>44420</v>
       </c>
       <c r="K10" s="1">
-        <v>8392</v>
+        <v>14068</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1325,7 +1325,7 @@
         <v>100</v>
       </c>
       <c r="K11" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1465,7 +1465,7 @@
         <v>301</v>
       </c>
       <c r="K15" s="1">
-        <v>36.9</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1500,7 +1500,7 @@
         <v>7981</v>
       </c>
       <c r="K16" s="1">
-        <v>1423</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1535,7 +1535,7 @@
         <v>109</v>
       </c>
       <c r="K17" s="1">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">

--- a/docs/data/zsf.xlsx
+++ b/docs/data/zsf.xlsx
@@ -928,7 +928,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,7 +1042,7 @@
         <v>1945</v>
       </c>
       <c r="K3" s="1">
-        <v>1068</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1078,7 +1078,7 @@
         <v>89070</v>
       </c>
       <c r="K4" s="1">
-        <v>45613</v>
+        <v>66604</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1113,7 +1113,7 @@
         <v>207</v>
       </c>
       <c r="K5" s="1">
-        <v>103</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1254,7 +1254,7 @@
         <v>638</v>
       </c>
       <c r="K9" s="1">
-        <v>303</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1290,7 +1290,8 @@
         <v>44420</v>
       </c>
       <c r="K10" s="1">
-        <v>14068</v>
+        <f>24388+59</f>
+        <v>24447</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1325,7 +1326,7 @@
         <v>100</v>
       </c>
       <c r="K11" s="1">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1465,7 +1466,7 @@
         <v>301</v>
       </c>
       <c r="K15" s="1">
-        <v>87.5</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1500,7 +1501,7 @@
         <v>7981</v>
       </c>
       <c r="K16" s="1">
-        <v>2640</v>
+        <v>7084</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1535,7 +1536,7 @@
         <v>109</v>
       </c>
       <c r="K17" s="1">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1570,7 +1571,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1885,7 +1886,7 @@
         <v>4</v>
       </c>
       <c r="K27" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1920,7 +1921,7 @@
         <v>9916</v>
       </c>
       <c r="K28" s="1">
-        <v>55097</v>
+        <v>64420</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">

--- a/docs/data/zsf.xlsx
+++ b/docs/data/zsf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -928,7 +928,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,7 +1254,7 @@
         <v>638</v>
       </c>
       <c r="K9" s="1">
-        <v>501</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1290,8 +1290,7 @@
         <v>44420</v>
       </c>
       <c r="K10" s="1">
-        <f>24388+59</f>
-        <v>24447</v>
+        <v>24980</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1326,7 +1325,7 @@
         <v>100</v>
       </c>
       <c r="K11" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">

--- a/docs/data/zsf.xlsx
+++ b/docs/data/zsf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -928,7 +928,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/data/zsf.xlsx
+++ b/docs/data/zsf.xlsx
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,7 +942,7 @@
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -976,8 +976,11 @@
       <c r="K1" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1008,8 +1011,11 @@
       <c r="K2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1044,8 +1050,11 @@
       <c r="K3" s="1">
         <v>1489</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1080,8 +1089,11 @@
       <c r="K4" s="1">
         <v>66604</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <v>17187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1115,8 +1127,11 @@
       <c r="K5" s="1">
         <v>148</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1150,8 +1165,11 @@
       <c r="K6" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1185,8 +1203,11 @@
       <c r="K7" s="1">
         <v>1007</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1220,8 +1241,11 @@
       <c r="K8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1256,8 +1280,11 @@
       <c r="K9" s="1">
         <v>509</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1292,8 +1319,11 @@
       <c r="K10" s="1">
         <v>24980</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <v>4772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1327,8 +1357,11 @@
       <c r="K11" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1362,8 +1395,11 @@
       <c r="K12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1397,8 +1433,11 @@
       <c r="K13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1432,8 +1471,11 @@
       <c r="K14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1467,8 +1509,11 @@
       <c r="K15" s="1">
         <v>187</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1502,8 +1547,11 @@
       <c r="K16" s="1">
         <v>7084</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="1">
+        <v>15970</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1537,8 +1585,11 @@
       <c r="K17" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1572,8 +1623,11 @@
       <c r="K18" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1607,8 +1661,11 @@
       <c r="K19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1642,8 +1699,11 @@
       <c r="K20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1677,8 +1737,11 @@
       <c r="K21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1712,8 +1775,11 @@
       <c r="K22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1747,8 +1813,11 @@
       <c r="K23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1780,10 +1849,13 @@
         <v>4</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1817,8 +1889,11 @@
       <c r="K25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1852,8 +1927,11 @@
       <c r="K26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1887,8 +1965,11 @@
       <c r="K27" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1922,8 +2003,11 @@
       <c r="K28" s="1">
         <v>64420</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="1">
+        <v>37145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1955,6 +2039,9 @@
         <v>15</v>
       </c>
       <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
         <v>0</v>
       </c>
     </row>

--- a/docs/data/zsf.xlsx
+++ b/docs/data/zsf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,7 +942,7 @@
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -979,8 +979,9 @@
       <c r="L1" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1014,8 +1015,9 @@
       <c r="L2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1054,7 +1056,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1093,7 +1095,7 @@
         <v>17187</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1131,7 +1133,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1169,7 +1171,7 @@
         <v>88.8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1207,7 +1209,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1245,7 +1247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1284,7 +1286,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1323,7 +1325,7 @@
         <v>4772</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1361,7 +1363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1399,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1437,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1475,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1513,7 +1515,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
